--- a/data/trans_orig/P15E_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Clase-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>2528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>671</v>
+        <v>589</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3142</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8045440504046542</v>
+        <v>0.804544050404654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2136260202942045</v>
+        <v>0.1873142867047285</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>4415</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2321</v>
+        <v>2258</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6109</v>
+        <v>6018</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6216520066585219</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3268147079267559</v>
+        <v>0.3179028799245385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8602306259729048</v>
+        <v>0.8474022053826696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -783,19 +783,19 @@
         <v>6943</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4438</v>
+        <v>4209</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9087</v>
+        <v>8790</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6777566458922076</v>
+        <v>0.6777566458922077</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4332576454046054</v>
+        <v>0.4108422146215296</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8870535885621147</v>
+        <v>0.8580550724761252</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2471</v>
+        <v>2553</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1954559495953459</v>
+        <v>0.195455949595346</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7863739797057955</v>
+        <v>0.8126857132952715</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>2687</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>993</v>
+        <v>1084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4781</v>
+        <v>4844</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3783479933414778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1397693740270952</v>
+        <v>0.1525977946173304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6731852920732443</v>
+        <v>0.682097120075461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>3301</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1157</v>
+        <v>1454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5806</v>
+        <v>6035</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3222433541077923</v>
+        <v>0.3222433541077924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1129464114378854</v>
+        <v>0.1419449275238749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5667423545953946</v>
+        <v>0.5891577853784704</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>4060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1650</v>
+        <v>1667</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>5787</v>
@@ -967,7 +967,7 @@
         <v>0.7015753429555694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2851057503108137</v>
+        <v>0.2881281794000189</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -979,19 +979,19 @@
         <v>1839</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3384</v>
+        <v>3397</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4629940892741881</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1366999260398065</v>
+        <v>0.1402532265910164</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8517016794794828</v>
+        <v>0.8551041985880231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1000,19 +1000,19 @@
         <v>5899</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3020</v>
+        <v>3324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7991</v>
+        <v>8305</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6044591101214941</v>
+        <v>0.6044591101214942</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.309495943309638</v>
+        <v>0.3406049886716686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8188244709159889</v>
+        <v>0.8510102614395925</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2984246570444304</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7120178056753541</v>
+        <v>0.7116696003800326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1050,19 +1050,19 @@
         <v>2134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3435</v>
+        <v>3415</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5370059107258121</v>
+        <v>0.5370059107258119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1496683604340675</v>
+        <v>0.1445671955659728</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8645184382099446</v>
+        <v>0.8595284031957382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1071,19 +1071,19 @@
         <v>3860</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1768</v>
+        <v>1454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6739</v>
+        <v>6435</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3955408898785058</v>
+        <v>0.3955408898785059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1811755290840112</v>
+        <v>0.1489897385604075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6905040566903616</v>
+        <v>0.6593950113283316</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>1748</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3644</v>
+        <v>3684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3978883808907717</v>
+        <v>0.3978883808907718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07666524365051064</v>
+        <v>0.08969970380098451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8295723904878006</v>
+        <v>0.8386834452755552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1196,19 +1196,19 @@
         <v>3721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5602</v>
+        <v>5359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5647124656777641</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2574188053354614</v>
+        <v>0.2562760072110144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8501940458538269</v>
+        <v>0.8133584627801242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1217,19 +1217,19 @@
         <v>5469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2985</v>
+        <v>2965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7938</v>
+        <v>8087</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4979766079770759</v>
+        <v>0.497976607977076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2717937104547212</v>
+        <v>0.2699454715398121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7228474047376939</v>
+        <v>0.7363426934492435</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>2645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4055</v>
+        <v>3999</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6021116191092281</v>
+        <v>0.6021116191092282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1667569506335398</v>
+        <v>0.1613165547244451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9231155267435062</v>
+        <v>0.9103002961990155</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1267,19 +1267,19 @@
         <v>2868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>987</v>
+        <v>1230</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4893</v>
+        <v>4900</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4352875343222358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1498059541461733</v>
+        <v>0.1866415372198758</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7425811946645388</v>
+        <v>0.7437239927889856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1288,19 +1288,19 @@
         <v>5513</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3044</v>
+        <v>2895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7997</v>
+        <v>8017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.502023392022924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2771525952623063</v>
+        <v>0.2636573065507563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.728206289545279</v>
+        <v>0.7300545284601877</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>10423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7031</v>
+        <v>6719</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13403</v>
+        <v>13347</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6306105863899109</v>
+        <v>0.6306105863899107</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4254031295344933</v>
+        <v>0.4065092112726807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8109466684399693</v>
+        <v>0.8075219214899821</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1413,19 +1413,19 @@
         <v>9261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6790</v>
+        <v>6865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11007</v>
+        <v>11057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7642730857905882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5602968283562084</v>
+        <v>0.56648996778196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9083527873888698</v>
+        <v>0.9124124323047248</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1434,19 +1434,19 @@
         <v>19684</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14576</v>
+        <v>15626</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23103</v>
+        <v>23483</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6871524418343972</v>
+        <v>0.6871524418343973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.508826261004651</v>
+        <v>0.5454916313084249</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8064992995586709</v>
+        <v>0.8197726061644002</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>6105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3125</v>
+        <v>3181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9497</v>
+        <v>9809</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3693894136100893</v>
+        <v>0.3693894136100892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1890533315600307</v>
+        <v>0.1924780785100179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5745968704655069</v>
+        <v>0.5934907887273194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1484,19 +1484,19 @@
         <v>2857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1111</v>
+        <v>1061</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5328</v>
+        <v>5253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.235726914209412</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09164721261113021</v>
+        <v>0.0875875676952753</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4397031716437915</v>
+        <v>0.4335100322180399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1505,19 +1505,19 @@
         <v>8962</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5543</v>
+        <v>5163</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14070</v>
+        <v>13020</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3128475581656028</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1935007004413289</v>
+        <v>0.1802273938355999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4911737389953488</v>
+        <v>0.4545083686915751</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>4838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2884</v>
+        <v>2944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6281</v>
+        <v>6299</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7116274460274815</v>
+        <v>0.7116274460274816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4241884600879051</v>
+        <v>0.4330193581049528</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9239526002197144</v>
+        <v>0.9265276184463911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1630,19 +1630,19 @@
         <v>21100</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17979</v>
+        <v>18269</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23249</v>
+        <v>23342</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8171339134418889</v>
+        <v>0.8171339134418888</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6962745477505125</v>
+        <v>0.7075116711439805</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9003460105506965</v>
+        <v>0.903941399657017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1654,16 +1654,16 @@
         <v>22035</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28875</v>
+        <v>28594</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7951473706306545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.675512544119679</v>
+        <v>0.6755186959547426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8852073872232599</v>
+        <v>0.8765942384901798</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3914</v>
+        <v>3854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2883725539725183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07604739978028564</v>
+        <v>0.07347238155360888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5758115399120943</v>
+        <v>0.566980641895047</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1701,19 +1701,19 @@
         <v>4722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2573</v>
+        <v>2480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7843</v>
+        <v>7553</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1828660865581111</v>
+        <v>0.182866086558111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09965398944930372</v>
+        <v>0.09605860034298264</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3037254522494877</v>
+        <v>0.2924883288560191</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1722,7 +1722,7 @@
         <v>6682</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3744</v>
+        <v>4025</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>10584</v>
@@ -1731,10 +1731,10 @@
         <v>0.2048526293693455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1147926127767402</v>
+        <v>0.1234057615098202</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3244874558803208</v>
+        <v>0.3244813040452573</v>
       </c>
     </row>
     <row r="18">
@@ -1835,19 +1835,19 @@
         <v>23250</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19441</v>
+        <v>19431</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26572</v>
+        <v>26465</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7400460896544887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6187998040407039</v>
+        <v>0.6184876144055527</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8457979756255326</v>
+        <v>0.8423628830199796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -1856,19 +1856,19 @@
         <v>23250</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19441</v>
+        <v>19431</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26572</v>
+        <v>26465</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7400460896544887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6187998040407039</v>
+        <v>0.6184876144055527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8457979756255326</v>
+        <v>0.8423628830199796</v>
       </c>
     </row>
     <row r="20">
@@ -1894,19 +1894,19 @@
         <v>8167</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4845</v>
+        <v>4952</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11976</v>
+        <v>11986</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2599539103455113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1542020243744672</v>
+        <v>0.1576371169800202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.381200195959296</v>
+        <v>0.3815123855944471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1915,19 +1915,19 @@
         <v>8167</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4845</v>
+        <v>4952</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11976</v>
+        <v>11986</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2599539103455113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1542020243744672</v>
+        <v>0.1576371169800202</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.381200195959296</v>
+        <v>0.3815123855944471</v>
       </c>
     </row>
     <row r="21">
@@ -2007,19 +2007,19 @@
         <v>23596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17852</v>
+        <v>18790</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28298</v>
+        <v>27750</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6438590380778473</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4871142900604274</v>
+        <v>0.5127123415222249</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7721473111854463</v>
+        <v>0.7572171970622719</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>121</v>
@@ -2028,19 +2028,19 @@
         <v>63586</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57384</v>
+        <v>57248</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69803</v>
+        <v>69519</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7307085582418169</v>
+        <v>0.7307085582418168</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6594361683811425</v>
+        <v>0.6578660517741601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8021486232435416</v>
+        <v>0.7988899897555701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>160</v>
@@ -2049,19 +2049,19 @@
         <v>87182</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78877</v>
+        <v>79261</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94602</v>
+        <v>94889</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7049710909350549</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6378121414249399</v>
+        <v>0.6409188224906309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7649660400331454</v>
+        <v>0.7672878991992369</v>
       </c>
     </row>
     <row r="23">
@@ -2078,19 +2078,19 @@
         <v>13052</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8350</v>
+        <v>8898</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18796</v>
+        <v>17858</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3561409619221528</v>
+        <v>0.3561409619221527</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2278526888145538</v>
+        <v>0.2427828029377281</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5128857099395725</v>
+        <v>0.4872876584777746</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>47</v>
@@ -2099,19 +2099,19 @@
         <v>23434</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17217</v>
+        <v>17501</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29636</v>
+        <v>29772</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.269291441758183</v>
+        <v>0.2692914417581831</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1978513767564581</v>
+        <v>0.20111001024443</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3405638316188574</v>
+        <v>0.3421339482258398</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>66</v>
@@ -2120,19 +2120,19 @@
         <v>36486</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29066</v>
+        <v>28779</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44791</v>
+        <v>44407</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.295028909064945</v>
+        <v>0.2950289090649451</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2350339599668547</v>
+        <v>0.2327121008007632</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3621878585750601</v>
+        <v>0.3590811775093693</v>
       </c>
     </row>
     <row r="24">
